--- a/gameserver/src/main/resources/xlxs/DictEquip.xlsx
+++ b/gameserver/src/main/resources/xlxs/DictEquip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>ID（对应道具的ID）</t>
   </si>
@@ -25,22 +25,40 @@
     <t>最大耐久</t>
   </si>
   <si>
-    <t>属性1</t>
-  </si>
-  <si>
-    <t>属性2</t>
-  </si>
-  <si>
-    <t>属性3</t>
-  </si>
-  <si>
-    <t>属性4</t>
-  </si>
-  <si>
-    <t>属性5</t>
-  </si>
-  <si>
-    <t>属性6</t>
+    <t>hp加成</t>
+  </si>
+  <si>
+    <t>mp加成</t>
+  </si>
+  <si>
+    <t>力量加成</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>魔法攻击</t>
+  </si>
+  <si>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>魔法防御</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>移动熟读</t>
   </si>
   <si>
     <t>id</t>
@@ -52,34 +70,40 @@
     <t>maxDurability</t>
   </si>
   <si>
-    <t>property1</t>
-  </si>
-  <si>
-    <t>property2</t>
-  </si>
-  <si>
-    <t>property3</t>
-  </si>
-  <si>
-    <t>property4</t>
-  </si>
-  <si>
-    <t>property5</t>
-  </si>
-  <si>
-    <t>property6</t>
-  </si>
-  <si>
-    <t>0|3|1|0.3</t>
-  </si>
-  <si>
-    <t>0|7|1|0.3</t>
-  </si>
-  <si>
-    <t>0|3|1|0.1</t>
-  </si>
-  <si>
-    <t>0|7|1|0.1</t>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>brains</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>phyAttack</t>
+  </si>
+  <si>
+    <t>magicAttack</t>
+  </si>
+  <si>
+    <t>phyDefense</t>
+  </si>
+  <si>
+    <t>magicDefense</t>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
   </si>
 </sst>
 </file>
@@ -87,15 +111,128 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -109,30 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -147,97 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -254,19 +278,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,163 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +469,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,6 +513,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,26 +541,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,32 +569,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1027,9 +1051,10 @@
     <col min="3" max="3" width="22.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="12" max="12" width="23.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,37 +1082,73 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1097,215 +1158,605 @@
       <c r="C3">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>99999</v>
+      </c>
+      <c r="K3">
+        <v>99999</v>
+      </c>
+      <c r="L3">
+        <v>99999</v>
+      </c>
+      <c r="M3">
+        <v>99999</v>
+      </c>
+      <c r="N3">
+        <v>99999</v>
+      </c>
+      <c r="O3">
+        <v>99999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>99999</v>
+      </c>
+      <c r="K4">
+        <v>99999</v>
+      </c>
+      <c r="L4">
+        <v>99999</v>
+      </c>
+      <c r="M4">
+        <v>99999</v>
+      </c>
+      <c r="N4">
+        <v>99999</v>
+      </c>
+      <c r="O4">
+        <v>99999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>99999</v>
+      </c>
+      <c r="K5">
+        <v>99999</v>
+      </c>
+      <c r="L5">
+        <v>99999</v>
+      </c>
+      <c r="M5">
+        <v>99999</v>
+      </c>
+      <c r="N5">
+        <v>99999</v>
+      </c>
+      <c r="O5">
+        <v>99999</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>99999</v>
+      </c>
+      <c r="K6">
+        <v>99999</v>
+      </c>
+      <c r="L6">
+        <v>99999</v>
+      </c>
+      <c r="M6">
+        <v>99999</v>
+      </c>
+      <c r="N6">
+        <v>99999</v>
+      </c>
+      <c r="O6">
+        <v>99999</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>99999</v>
+      </c>
+      <c r="K7">
+        <v>99999</v>
+      </c>
+      <c r="L7">
+        <v>99999</v>
+      </c>
+      <c r="M7">
+        <v>99999</v>
+      </c>
+      <c r="N7">
+        <v>99999</v>
+      </c>
+      <c r="O7">
+        <v>99999</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>99999</v>
+      </c>
+      <c r="K8">
+        <v>99999</v>
+      </c>
+      <c r="L8">
+        <v>99999</v>
+      </c>
+      <c r="M8">
+        <v>99999</v>
+      </c>
+      <c r="N8">
+        <v>99999</v>
+      </c>
+      <c r="O8">
+        <v>99999</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>99999</v>
+      </c>
+      <c r="K9">
+        <v>99999</v>
+      </c>
+      <c r="L9">
+        <v>99999</v>
+      </c>
+      <c r="M9">
+        <v>99999</v>
+      </c>
+      <c r="N9">
+        <v>99999</v>
+      </c>
+      <c r="O9">
+        <v>99999</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>99999</v>
+      </c>
+      <c r="K10">
+        <v>99999</v>
+      </c>
+      <c r="L10">
+        <v>99999</v>
+      </c>
+      <c r="M10">
+        <v>99999</v>
+      </c>
+      <c r="N10">
+        <v>99999</v>
+      </c>
+      <c r="O10">
+        <v>99999</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>99999</v>
+      </c>
+      <c r="K11">
+        <v>99999</v>
+      </c>
+      <c r="L11">
+        <v>99999</v>
+      </c>
+      <c r="M11">
+        <v>99999</v>
+      </c>
+      <c r="N11">
+        <v>99999</v>
+      </c>
+      <c r="O11">
+        <v>99999</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>99999</v>
+      </c>
+      <c r="K12">
+        <v>99999</v>
+      </c>
+      <c r="L12">
+        <v>99999</v>
+      </c>
+      <c r="M12">
+        <v>99999</v>
+      </c>
+      <c r="N12">
+        <v>99999</v>
+      </c>
+      <c r="O12">
+        <v>99999</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>99999</v>
+      </c>
+      <c r="K13">
+        <v>99999</v>
+      </c>
+      <c r="L13">
+        <v>99999</v>
+      </c>
+      <c r="M13">
+        <v>99999</v>
+      </c>
+      <c r="N13">
+        <v>99999</v>
+      </c>
+      <c r="O13">
+        <v>99999</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>-1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>99999</v>
+      </c>
+      <c r="K14">
+        <v>99999</v>
+      </c>
+      <c r="L14">
+        <v>99999</v>
+      </c>
+      <c r="M14">
+        <v>99999</v>
+      </c>
+      <c r="N14">
+        <v>99999</v>
+      </c>
+      <c r="O14">
+        <v>99999</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>-1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>99999</v>
+      </c>
+      <c r="K15">
+        <v>99999</v>
+      </c>
+      <c r="L15">
+        <v>99999</v>
+      </c>
+      <c r="M15">
+        <v>99999</v>
+      </c>
+      <c r="N15">
+        <v>99999</v>
+      </c>
+      <c r="O15">
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
